--- a/cypress/downloads/DataGrid.xlsx
+++ b/cypress/downloads/DataGrid.xlsx
@@ -290,7 +290,7 @@
     </row>
     <row r="2" spans="1:20" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="n">
-        <v>130548</v>
+        <v>130552</v>
       </c>
       <c r="B2" s="4" t="s"/>
       <c r="C2" s="4" t="s">
@@ -326,10 +326,10 @@
         <v>28</v>
       </c>
       <c r="O2" s="5" t="n">
-        <v>45800.57994212963</v>
+        <v>45802.95724537037</v>
       </c>
       <c r="P2" s="5" t="n">
-        <v>45801.57986111111</v>
+        <v>45803.95694444444</v>
       </c>
       <c r="Q2" s="4" t="s"/>
       <c r="R2" s="4" t="s">
@@ -344,7 +344,7 @@
     </row>
     <row r="3" spans="1:20" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="n">
-        <v>130547</v>
+        <v>130551</v>
       </c>
       <c r="B3" s="4" t="s"/>
       <c r="C3" s="4" t="s">
@@ -380,10 +380,10 @@
         <v>28</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>45800.53640046297</v>
+        <v>45802.945555555554</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>45801.53611111111</v>
+        <v>45803.94513888889</v>
       </c>
       <c r="Q3" s="4" t="s"/>
       <c r="R3" s="4" t="s">
@@ -398,7 +398,7 @@
     </row>
     <row r="4" spans="1:20" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="n">
-        <v>130546</v>
+        <v>130550</v>
       </c>
       <c r="B4" s="4" t="s"/>
       <c r="C4" s="4" t="s">
@@ -434,10 +434,10 @@
         <v>28</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>45800.535</v>
+        <v>45802.863645833335</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>45801.53472222222</v>
+        <v>45803.86319444444</v>
       </c>
       <c r="Q4" s="4" t="s"/>
       <c r="R4" s="4" t="s">
@@ -452,7 +452,7 @@
     </row>
     <row r="5" spans="1:20" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="n">
-        <v>130545</v>
+        <v>130549</v>
       </c>
       <c r="B5" s="4" t="s"/>
       <c r="C5" s="4" t="s">
@@ -488,10 +488,10 @@
         <v>28</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>45800.53434027778</v>
+        <v>45802.86126157407</v>
       </c>
       <c r="P5" s="5" t="n">
-        <v>45801.53402777778</v>
+        <v>45803.86111111111</v>
       </c>
       <c r="Q5" s="4" t="s"/>
       <c r="R5" s="4" t="s">
@@ -554,60 +554,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="n">
-        <v>130543</v>
-      </c>
-      <c r="B7" s="4" t="s"/>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="5" t="s"/>
-      <c r="I7" s="5" t="s"/>
-      <c r="J7" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>45800.53099537037</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>45801.53055555555</v>
-      </c>
-      <c r="Q7" s="4" t="s"/>
-      <c r="R7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>